--- a/test_Data/test_data.xlsx
+++ b/test_Data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>用例ID</t>
   </si>
@@ -24,10 +24,10 @@
     <t>用例名</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>coneent</t>
+    <t>key(需要key可以在这里增加key)</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>url</t>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>code=40002</t>
   </si>
   <si>
     <t>dfeb1cc8125943d29764a2f2f5c33739</t>
@@ -62,6 +65,9 @@
   <si>
     <t xml:space="preserve">http://www.tuling123.com/openapi/api
 </t>
+  </si>
+  <si>
+    <t>code=40008</t>
   </si>
 </sst>
 </file>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,6 +137,27 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +179,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,57 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -254,6 +260,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,6 +350,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,102 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +433,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,35 +492,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,9 +516,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,124 +562,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1044,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
   </cols>
@@ -1094,8 +1101,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>40002</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:7">
@@ -1106,16 +1113,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>40008</v>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test_Data/test_data.xlsx
+++ b/test_Data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="25920" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>POST</t>
   </si>
   <si>
-    <t>code=40002</t>
+    <t>code=40001</t>
   </si>
   <si>
     <t>dfeb1cc8125943d29764a2f2f5c33739</t>
@@ -67,7 +67,7 @@
 </t>
   </si>
   <si>
-    <t>code=40008</t>
+    <t>code=40002</t>
   </si>
 </sst>
 </file>
@@ -105,23 +105,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -129,35 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,41 +136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,9 +152,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +242,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,6 +278,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,25 +326,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,60 +416,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,30 +423,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -486,6 +471,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,15 +533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,112 +574,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,16 +1035,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1137,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1154,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test_Data/test_data.xlsx
+++ b/test_Data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="7500"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>用例ID</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>code=40002</t>
+  </si>
+  <si>
+    <t>豆瓣api</t>
+  </si>
+  <si>
+    <t>https://api.douban.com/v2/photo/:id</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>code=1001&amp;msg=uri_not_found</t>
   </si>
 </sst>
 </file>
@@ -75,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +112,44 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +170,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -138,9 +224,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,81 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,37 +254,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,144 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,11 +448,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,54 +528,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -533,6 +536,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,145 +553,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,20 +1047,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -1124,6 +1135,23 @@
       </c>
       <c r="G3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1155,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
